--- a/load-calc.xlsx
+++ b/load-calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\playground\balun_system_design\balun_system_design_hw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B0F8B6F-D035-4621-947A-235233F0A9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AD2AB9-5542-4A28-AD77-8DF7D97D0DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8115" yWindow="2640" windowWidth="21600" windowHeight="11235" xr2:uid="{15D9559A-FAE1-4F84-AC9E-9DF5FE4C7B84}"/>
+    <workbookView xWindow="2355" yWindow="840" windowWidth="21600" windowHeight="11235" xr2:uid="{15D9559A-FAE1-4F84-AC9E-9DF5FE4C7B84}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>- регистрация: 100 000 в день</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>div</t>
+  </si>
+  <si>
+    <t>Mb/s</t>
+  </si>
+  <si>
+    <t>Mb за одну операцию</t>
   </si>
 </sst>
 </file>
@@ -440,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD70E5C-C1FB-42C3-BCBE-D8AE6DE4682F}">
-  <dimension ref="C3:J18"/>
+  <dimension ref="C3:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,9 +457,10 @@
     <col min="4" max="4" width="99.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
       <c r="I3">
         <f>SUM(I5:I18)</f>
         <v>44908.564814814818</v>
@@ -462,8 +469,12 @@
         <f>SUM(J5:J18)</f>
         <v>15402.391975308643</v>
       </c>
-    </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <f t="shared" ref="K3:L3" si="0">SUM(L5:L18)</f>
+        <v>482303.35648148152</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>14</v>
       </c>
@@ -482,8 +493,14 @@
       <c r="J4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>10000000</v>
       </c>
@@ -511,8 +528,15 @@
         <f>F5*G5/H5</f>
         <v>1.1574074074074074</v>
       </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>0.1</v>
+      </c>
+      <c r="L5">
+        <f>K5*G5/H5</f>
+        <v>0.11574074074074074</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>1</v>
       </c>
@@ -530,15 +554,22 @@
         <v>86400</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I18" si="0">E6*G6/H6</f>
+        <f t="shared" ref="I6:I18" si="1">E6*G6/H6</f>
         <v>115.74074074074075</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J18" si="1">F6*G6/H6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J6:J18" si="2">F6*G6/H6</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0.1</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L18" si="3">K6*G6/H6</f>
+        <v>11.574074074074074</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>2</v>
       </c>
@@ -557,15 +588,22 @@
         <v>86400</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>347.22222222222223</v>
       </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>694.44444444444446</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>3</v>
       </c>
@@ -584,15 +622,22 @@
         <v>2592000</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.716049382716049</v>
       </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>4</v>
       </c>
@@ -607,19 +652,26 @@
         <v>100000000</v>
       </c>
       <c r="H9">
-        <f>24*60*60</f>
+        <f t="shared" ref="H9:H18" si="4">24*60*60</f>
         <v>86400</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1157.4074074074074</v>
       </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>2314.8148148148148</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>5</v>
       </c>
@@ -634,19 +686,26 @@
         <v>200000000</v>
       </c>
       <c r="H10">
-        <f>24*60*60</f>
+        <f t="shared" si="4"/>
         <v>86400</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2314.8148148148148</v>
       </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>0.05</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>115.74074074074075</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>6</v>
       </c>
@@ -661,19 +720,26 @@
         <v>1000000000</v>
       </c>
       <c r="H11">
-        <f>24*60*60</f>
+        <f t="shared" si="4"/>
         <v>86400</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11574.074074074075</v>
       </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>7</v>
       </c>
@@ -688,19 +754,26 @@
         <v>200000000</v>
       </c>
       <c r="H12">
-        <f>24*60*60</f>
+        <f t="shared" si="4"/>
         <v>86400</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2314.8148148148148</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>20</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>46296.296296296299</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>8</v>
       </c>
@@ -715,19 +788,26 @@
         <v>100000000</v>
       </c>
       <c r="H13">
-        <f>24*60*60</f>
+        <f t="shared" si="4"/>
         <v>86400</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1157.4074074074074</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>20</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>23148.14814814815</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>9</v>
       </c>
@@ -742,19 +822,26 @@
         <v>20000000</v>
       </c>
       <c r="H14">
-        <f>24*60*60</f>
+        <f t="shared" si="4"/>
         <v>86400</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>231.4814814814815</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>20</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>4629.6296296296296</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>10</v>
       </c>
@@ -769,19 +856,26 @@
         <v>1000000000</v>
       </c>
       <c r="H15">
-        <f>24*60*60</f>
+        <f t="shared" si="4"/>
         <v>86400</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11574.074074074075</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>231481.48148148149</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>11</v>
       </c>
@@ -796,19 +890,26 @@
         <v>500000000</v>
       </c>
       <c r="H16">
-        <f>24*60*60</f>
+        <f t="shared" si="4"/>
         <v>86400</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5787.0370370370374</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>115740.74074074074</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>12</v>
       </c>
@@ -823,19 +924,26 @@
         <v>50000000</v>
       </c>
       <c r="H17">
-        <f>24*60*60</f>
+        <f t="shared" si="4"/>
         <v>86400</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>578.7037037037037</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>20</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>11574.074074074075</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>13</v>
       </c>
@@ -850,16 +958,23 @@
         <v>2000000000</v>
       </c>
       <c r="H18">
-        <f>24*60*60</f>
+        <f t="shared" si="4"/>
         <v>86400</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23148.14814814815</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>46296.296296296299</v>
       </c>
     </row>
   </sheetData>
